--- a/AI_Engine/Resultados/99999TCD00/dataFrame.xlsx
+++ b/AI_Engine/Resultados/99999TCD00/dataFrame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proveedores\CLIIENTES JOHN DEERE\JD SARAN\t66.pdf</t>
+          <t>C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proveedores\CLIIENTES JOHN DEERE\JD SARAN\t134.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JD SARAN</t>
+          <t>99999TCD00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,7 +511,85 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>89.502</v>
+        <v>67.855</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proveedores\CLIIENTES JOHN DEERE\JD SARAN\t54.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4501168528</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99999TCD00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>R104907</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>07.12.2021</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>79.55500000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proveedores\CLIIENTES JOHN DEERE\JD SARAN\t66.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4501168528</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99999TCD00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>R104907</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>07.12.2021</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>79.55500000000001</v>
       </c>
     </row>
   </sheetData>
